--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\node\playwright-sample-project\src\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playwright-enterprise\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181032E-F73C-43D7-9F96-C47E58292126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9963A395-6115-40D2-A2E0-A84D589747F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -858,17 +858,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -923,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -989,27 +989,27 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1168,19 +1168,19 @@
       <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1276,16 +1276,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1373,19 +1373,19 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1574,19 +1574,19 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -1734,16 +1734,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
